--- a/Huan/FB-Cleaned/vietnam.data.scientists.xlsx
+++ b/Huan/FB-Cleaned/vietnam.data.scientists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Hoang\source\repos\Teamb_Scraping_data\Huan\FB-Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC259A98-B49F-44F6-AF87-0228C95C4EFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4BB206-1841-44EF-B384-0250C0C8EBE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,19 +244,19 @@
     <t>700 - 1500$</t>
   </si>
   <si>
-    <t xml:space="preserve"> USD 15,000 ~USD 35,000/ năm</t>
-  </si>
-  <si>
     <t>2000$</t>
   </si>
   <si>
-    <t>$1000 - $1700</t>
-  </si>
-  <si>
     <t>500.000 vnd đến 2.000.000 vnd mỗi buổi dạy</t>
   </si>
   <si>
-    <t>1000$ - 5500$</t>
+    <t>USD 15,000 ~USD 35,000/ năm</t>
+  </si>
+  <si>
+    <t>1000 - 1700$</t>
+  </si>
+  <si>
+    <t>1000 - 5500$</t>
   </si>
 </sst>
 </file>
@@ -692,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -823,7 +823,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
         <v>70</v>
@@ -849,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
         <v>70</v>
@@ -930,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>70</v>
@@ -985,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>70</v>

--- a/Huan/FB-Cleaned/vietnam.data.scientists.xlsx
+++ b/Huan/FB-Cleaned/vietnam.data.scientists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Hoang\source\repos\Teamb_Scraping_data\Huan\FB-Cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4BB206-1841-44EF-B384-0250C0C8EBE1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887BFA95-79DE-4308-B700-E1B67956D49B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="20490" windowHeight="6015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -692,14 +692,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="4" width="84.5703125" customWidth="1"/>
+    <col min="3" max="3" width="84.5703125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
